--- a/Docs/2018-04-02 a 2018-04-06 correlatos,RF,RNF,projeto telas e cronograma/Cronograma.xlsx
+++ b/Docs/2018-04-02 a 2018-04-06 correlatos,RF,RNF,projeto telas e cronograma/Cronograma.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dougl\Dropbox\Projeto de Software 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dougl\Documents\GitHub\projetos-2\Docs\2018-04-02 a 2018-04-06 correlatos,RF,RNF,projeto telas e cronograma\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="31">
   <si>
     <t>Atividades</t>
   </si>
@@ -108,9 +108,6 @@
   </si>
   <si>
     <t>RF13 - O sistema deve permitir avaliação da doméstico (a) após o serviço</t>
-  </si>
-  <si>
-    <t>RF14 - O sistema deve gerenciar o pagamento entre o empregador (a) e a doméstico (a)</t>
   </si>
   <si>
     <t>RF15 - O sistema deve gerenciar o ponto da doméstico (a) através de um QRCode</t>
@@ -126,7 +123,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,6 +141,14 @@
     </font>
     <font>
       <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -186,7 +191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -207,10 +212,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -526,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P36"/>
+  <dimension ref="B1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,24 +549,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9" t="s">
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9" t="s">
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E2" s="5" t="s">
@@ -896,7 +904,7 @@
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>11</v>
@@ -934,14 +942,16 @@
       <c r="L17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="M17" s="6"/>
+      <c r="M17" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
     </row>
-    <row r="18" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -955,66 +965,66 @@
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
-      <c r="M18" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
-      <c r="C19" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="B19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B20" s="2"/>
+      <c r="C20" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+      <c r="C21" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
-      <c r="C21" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>9</v>
@@ -1034,15 +1044,15 @@
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -1057,10 +1067,10 @@
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7" t="s">
@@ -1080,16 +1090,16 @@
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" s="7"/>
-      <c r="F24" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
@@ -1103,10 +1113,10 @@
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
@@ -1126,18 +1136,20 @@
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
@@ -1149,17 +1161,15 @@
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-      <c r="H27" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="H27" s="7"/>
       <c r="I27" s="7" t="s">
         <v>9</v>
       </c>
@@ -1174,10 +1184,10 @@
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
@@ -1197,19 +1207,19 @@
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
-      <c r="I29" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
@@ -1220,20 +1230,20 @@
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
-      <c r="J30" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
@@ -1243,10 +1253,10 @@
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
@@ -1260,16 +1270,16 @@
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
       <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
+      <c r="O31" s="11"/>
       <c r="P31" s="7"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
@@ -1277,19 +1287,21 @@
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
-      <c r="K32" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M32" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="N32" s="7"/>
       <c r="O32" s="7"/>
       <c r="P32" s="7"/>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
-      <c r="C33" s="8" t="s">
-        <v>27</v>
+      <c r="C33" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>11</v>
@@ -1301,84 +1313,38 @@
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
-      <c r="L33" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="L33" s="7"/>
       <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="7"/>
-      <c r="P33" s="7"/>
-    </row>
-    <row r="34" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="1"/>
-      <c r="C34" s="10" t="s">
-        <v>28</v>
-      </c>
+      <c r="N33" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="N34" s="7"/>
-      <c r="O34" s="7"/>
-      <c r="P34" s="7"/>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B35" s="1"/>
-      <c r="C35" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B36" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4" t="s">
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Docs/2018-04-02 a 2018-04-06 correlatos,RF,RNF,projeto telas e cronograma/Cronograma.xlsx
+++ b/Docs/2018-04-02 a 2018-04-06 correlatos,RF,RNF,projeto telas e cronograma/Cronograma.xlsx
@@ -156,12 +156,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -191,7 +203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -214,10 +226,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -536,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,24 +567,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10" t="s">
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10" t="s">
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E2" s="5" t="s">
@@ -654,7 +672,7 @@
       <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="4"/>
@@ -677,7 +695,7 @@
       <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="4"/>
@@ -701,7 +719,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="7"/>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="12" t="s">
         <v>9</v>
       </c>
       <c r="G7" s="7"/>
@@ -724,7 +742,7 @@
         <v>11</v>
       </c>
       <c r="E8" s="4"/>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G8" s="4"/>
@@ -1270,7 +1288,7 @@
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
       <c r="N31" s="7"/>
-      <c r="O31" s="11"/>
+      <c r="O31" s="10"/>
       <c r="P31" s="7"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">

--- a/Docs/2018-04-02 a 2018-04-06 correlatos,RF,RNF,projeto telas e cronograma/Cronograma.xlsx
+++ b/Docs/2018-04-02 a 2018-04-06 correlatos,RF,RNF,projeto telas e cronograma/Cronograma.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dougl\Documents\GitHub\projetos-2\Docs\2018-04-02 a 2018-04-06 correlatos,RF,RNF,projeto telas e cronograma\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafael\Documents\GitHub\projetos-2\Docs\2018-04-02 a 2018-04-06 correlatos,RF,RNF,projeto telas e cronograma\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -156,7 +156,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -172,6 +172,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -203,7 +209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -229,13 +235,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -555,7 +564,7 @@
   <dimension ref="B1:P34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,24 +576,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11" t="s">
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11" t="s">
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="E2" s="5" t="s">
@@ -672,7 +681,7 @@
       <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="4"/>
@@ -695,7 +704,7 @@
       <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="11" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="4"/>
@@ -719,7 +728,7 @@
         <v>10</v>
       </c>
       <c r="E7" s="7"/>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="11" t="s">
         <v>9</v>
       </c>
       <c r="G7" s="7"/>
@@ -742,7 +751,7 @@
         <v>11</v>
       </c>
       <c r="E8" s="4"/>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="12" t="s">
         <v>9</v>
       </c>
       <c r="G8" s="4"/>
@@ -766,7 +775,7 @@
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="12" t="s">
         <v>9</v>
       </c>
       <c r="H9" s="6"/>
@@ -789,7 +798,7 @@
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="12" t="s">
         <v>9</v>
       </c>
       <c r="H10" s="6"/>
@@ -813,10 +822,10 @@
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
-      <c r="H11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11" s="6" t="s">
+      <c r="H11" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="12" t="s">
         <v>9</v>
       </c>
       <c r="J11" s="6"/>
@@ -839,7 +848,7 @@
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="11" t="s">
         <v>9</v>
       </c>
       <c r="J12" s="6"/>
@@ -862,7 +871,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="12" t="s">
         <v>9</v>
       </c>
       <c r="J13" s="6"/>
@@ -886,7 +895,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="6" t="s">
+      <c r="J14" s="11" t="s">
         <v>9</v>
       </c>
       <c r="K14" s="6"/>
@@ -910,7 +919,7 @@
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="14" t="s">
         <v>9</v>
       </c>
       <c r="L15" s="6"/>
@@ -933,7 +942,7 @@
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
-      <c r="K16" s="6" t="s">
+      <c r="K16" s="11" t="s">
         <v>9</v>
       </c>
       <c r="L16" s="6"/>
@@ -957,10 +966,10 @@
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
-      <c r="L17" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="M17" s="6" t="s">
+      <c r="L17" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M17" s="14" t="s">
         <v>9</v>
       </c>
       <c r="N17" s="6"/>
@@ -984,13 +993,13 @@
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
-      <c r="N18" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="P18" s="7" t="s">
+      <c r="N18" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O18" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P18" s="14" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Docs/2018-04-02 a 2018-04-06 correlatos,RF,RNF,projeto telas e cronograma/Cronograma.xlsx
+++ b/Docs/2018-04-02 a 2018-04-06 correlatos,RF,RNF,projeto telas e cronograma/Cronograma.xlsx
@@ -156,7 +156,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -178,6 +178,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -209,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -241,12 +247,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -561,105 +568,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P34"/>
+  <dimension ref="A1:T35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.140625" style="15"/>
     <col min="2" max="2" width="4.28515625" customWidth="1"/>
     <col min="3" max="3" width="77.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.42578125" customWidth="1"/>
     <col min="5" max="16" width="4" customWidth="1"/>
+    <col min="17" max="20" width="9.140625" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="E1" s="13" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+    </row>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13" t="s">
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13" t="s">
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-    </row>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="E2" s="5" t="s">
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P3" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="2" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -674,16 +687,12 @@
       <c r="P4" s="4"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
-      <c r="C5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>9</v>
-      </c>
+      <c r="B5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -697,12 +706,12 @@
       <c r="P5" s="4"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
+      <c r="B6" s="2"/>
       <c r="C6" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>9</v>
@@ -722,79 +731,79 @@
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -814,20 +823,18 @@
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>9</v>
-      </c>
+      <c r="G11" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
@@ -839,16 +846,18 @@
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="11" t="s">
+      <c r="H12" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="12" t="s">
         <v>9</v>
       </c>
       <c r="J12" s="6"/>
@@ -862,16 +871,16 @@
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
-      <c r="I13" s="12" t="s">
+      <c r="I13" s="11" t="s">
         <v>9</v>
       </c>
       <c r="J13" s="6"/>
@@ -885,19 +894,19 @@
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="11" t="s">
-        <v>9</v>
-      </c>
+      <c r="I14" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" s="6"/>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
@@ -908,20 +917,20 @@
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="14" t="s">
-        <v>9</v>
-      </c>
+      <c r="J15" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15" s="6"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
@@ -931,10 +940,10 @@
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="8" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -942,7 +951,7 @@
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
-      <c r="K16" s="11" t="s">
+      <c r="K16" s="13" t="s">
         <v>9</v>
       </c>
       <c r="L16" s="6"/>
@@ -954,10 +963,10 @@
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
@@ -965,93 +974,93 @@
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="M17" s="14" t="s">
-        <v>9</v>
-      </c>
+      <c r="K17" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="M18" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+      <c r="C19" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="O18" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="P18" s="14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="O19" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="P19" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B21" s="2"/>
+      <c r="C21" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
-      <c r="C21" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>9</v>
@@ -1071,15 +1080,15 @@
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7" t="s">
-        <v>9</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -1094,10 +1103,10 @@
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7" t="s">
@@ -1117,16 +1126,16 @@
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="F24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
@@ -1140,10 +1149,10 @@
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
@@ -1163,20 +1172,18 @@
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="G26" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
@@ -1188,15 +1195,17 @@
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
+      <c r="H27" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="I27" s="7" t="s">
         <v>9</v>
       </c>
@@ -1211,10 +1220,10 @@
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
@@ -1234,19 +1243,19 @@
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="I29" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J29" s="7"/>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
@@ -1257,20 +1266,20 @@
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="J30" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K30" s="7"/>
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
@@ -1280,10 +1289,10 @@
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
@@ -1297,16 +1306,16 @@
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
       <c r="N31" s="7"/>
-      <c r="O31" s="10"/>
+      <c r="O31" s="7"/>
       <c r="P31" s="7"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
@@ -1314,21 +1323,19 @@
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="M32" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="K32" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
       <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
+      <c r="O32" s="10"/>
       <c r="P32" s="7"/>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
-      <c r="C33" s="9" t="s">
-        <v>28</v>
+      <c r="C33" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>11</v>
@@ -1340,46 +1347,71 @@
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="L33" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M33" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="1"/>
+      <c r="C34" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1" t="s">
+      <c r="C35" s="1"/>
+      <c r="D35" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4" t="s">
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="M2:P2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
